--- a/notebooks/input_data/partner-solver-init-weights.xlsx
+++ b/notebooks/input_data/partner-solver-init-weights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="68">
   <si>
     <t>Org_y</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Biometricsfor vaccine delivery</t>
   </si>
   <si>
+    <t>D2</t>
+  </si>
+  <si>
     <t>Democratizing Ultrasound Africa</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>Girls-4-Girls</t>
+  </si>
+  <si>
+    <t>Humans inthe Loop</t>
   </si>
   <si>
     <t>Indigenous DC</t>
@@ -151,6 +157,9 @@
     <t>Mosquito-borne disease prevention</t>
   </si>
   <si>
+    <t>Nucleus</t>
+  </si>
+  <si>
     <t>PENSA *660#</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
   </si>
   <si>
     <t>Protect Medicinal Plants</t>
+  </si>
+  <si>
+    <t>SOLshare</t>
   </si>
   <si>
     <t>Salamat</t>
@@ -175,10 +187,19 @@
     <t>SmartFish Mexico</t>
   </si>
   <si>
+    <t>Someone Somewhere</t>
+  </si>
+  <si>
     <t>Symbrosia</t>
   </si>
   <si>
+    <t>TamoJunto.org.br</t>
+  </si>
+  <si>
     <t>Thaki</t>
+  </si>
+  <si>
+    <t>The Last Mile</t>
   </si>
   <si>
     <t>Ubenwa</t>
@@ -194,6 +215,9 @@
   </si>
   <si>
     <t>eggXYt</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -551,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F649"/>
+  <dimension ref="A1:F775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3004,17 +3028,17 @@
       <c r="B123" t="s">
         <v>30</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -13534,6 +13558,2526 @@
         <v>1</v>
       </c>
       <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="A650" t="s">
+        <v>6</v>
+      </c>
+      <c r="B650" t="s">
+        <v>60</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="F650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="A651" t="s">
+        <v>7</v>
+      </c>
+      <c r="B651" t="s">
+        <v>60</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="A652" t="s">
+        <v>8</v>
+      </c>
+      <c r="B652" t="s">
+        <v>60</v>
+      </c>
+      <c r="C652">
+        <v>1</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+      <c r="F652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" t="s">
+        <v>9</v>
+      </c>
+      <c r="B653" t="s">
+        <v>60</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+      <c r="F653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="A654" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" t="s">
+        <v>60</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="A655" t="s">
+        <v>11</v>
+      </c>
+      <c r="B655" t="s">
+        <v>60</v>
+      </c>
+      <c r="C655">
+        <v>1</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="A656" t="s">
+        <v>12</v>
+      </c>
+      <c r="B656" t="s">
+        <v>60</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="A657" t="s">
+        <v>13</v>
+      </c>
+      <c r="B657" t="s">
+        <v>60</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="A658" t="s">
+        <v>14</v>
+      </c>
+      <c r="B658" t="s">
+        <v>60</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+      <c r="F658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="A659" t="s">
+        <v>15</v>
+      </c>
+      <c r="B659" t="s">
+        <v>60</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>1</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660" t="s">
+        <v>60</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="A661" t="s">
+        <v>17</v>
+      </c>
+      <c r="B661" t="s">
+        <v>60</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" t="s">
+        <v>18</v>
+      </c>
+      <c r="B662" t="s">
+        <v>60</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+      <c r="D662">
+        <v>1</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" t="s">
+        <v>19</v>
+      </c>
+      <c r="B663" t="s">
+        <v>60</v>
+      </c>
+      <c r="C663">
+        <v>1</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+      <c r="F663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" t="s">
+        <v>20</v>
+      </c>
+      <c r="B664" t="s">
+        <v>60</v>
+      </c>
+      <c r="C664">
+        <v>1</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" t="s">
+        <v>21</v>
+      </c>
+      <c r="B665" t="s">
+        <v>60</v>
+      </c>
+      <c r="C665">
+        <v>1</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+      <c r="F665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" t="s">
+        <v>22</v>
+      </c>
+      <c r="B666" t="s">
+        <v>60</v>
+      </c>
+      <c r="C666">
+        <v>1</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>1</v>
+      </c>
+      <c r="F666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" t="s">
+        <v>23</v>
+      </c>
+      <c r="B667" t="s">
+        <v>60</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+      <c r="E667">
+        <v>1</v>
+      </c>
+      <c r="F667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="A668" t="s">
+        <v>6</v>
+      </c>
+      <c r="B668" t="s">
+        <v>61</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="A669" t="s">
+        <v>7</v>
+      </c>
+      <c r="B669" t="s">
+        <v>61</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+      <c r="F669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" t="s">
+        <v>8</v>
+      </c>
+      <c r="B670" t="s">
+        <v>61</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+      <c r="F670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" t="s">
+        <v>9</v>
+      </c>
+      <c r="B671" t="s">
+        <v>61</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="A672" t="s">
+        <v>10</v>
+      </c>
+      <c r="B672" t="s">
+        <v>61</v>
+      </c>
+      <c r="C672">
+        <v>1</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
+      <c r="A673" t="s">
+        <v>11</v>
+      </c>
+      <c r="B673" t="s">
+        <v>61</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673">
+        <v>1</v>
+      </c>
+      <c r="F673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
+      <c r="A674" t="s">
+        <v>12</v>
+      </c>
+      <c r="B674" t="s">
+        <v>61</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+      <c r="F674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" t="s">
+        <v>13</v>
+      </c>
+      <c r="B675" t="s">
+        <v>61</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+      <c r="F675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" t="s">
+        <v>14</v>
+      </c>
+      <c r="B676" t="s">
+        <v>61</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+      <c r="F676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" t="s">
+        <v>15</v>
+      </c>
+      <c r="B677" t="s">
+        <v>61</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677">
+        <v>1</v>
+      </c>
+      <c r="F677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" t="s">
+        <v>16</v>
+      </c>
+      <c r="B678" t="s">
+        <v>61</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" t="s">
+        <v>17</v>
+      </c>
+      <c r="B679" t="s">
+        <v>61</v>
+      </c>
+      <c r="C679">
+        <v>1</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+      <c r="F679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" t="s">
+        <v>18</v>
+      </c>
+      <c r="B680" t="s">
+        <v>61</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="A681" t="s">
+        <v>19</v>
+      </c>
+      <c r="B681" t="s">
+        <v>61</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" t="s">
+        <v>20</v>
+      </c>
+      <c r="B682" t="s">
+        <v>61</v>
+      </c>
+      <c r="C682">
+        <v>1</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" t="s">
+        <v>21</v>
+      </c>
+      <c r="B683" t="s">
+        <v>61</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683">
+        <v>1</v>
+      </c>
+      <c r="F683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" t="s">
+        <v>22</v>
+      </c>
+      <c r="B684" t="s">
+        <v>61</v>
+      </c>
+      <c r="C684">
+        <v>1</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+      <c r="F684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" t="s">
+        <v>23</v>
+      </c>
+      <c r="B685" t="s">
+        <v>61</v>
+      </c>
+      <c r="C685">
+        <v>1</v>
+      </c>
+      <c r="D685">
+        <v>1</v>
+      </c>
+      <c r="E685">
+        <v>1</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" t="s">
+        <v>6</v>
+      </c>
+      <c r="B686" t="s">
+        <v>62</v>
+      </c>
+      <c r="C686">
+        <v>1</v>
+      </c>
+      <c r="D686">
+        <v>1</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" t="s">
+        <v>7</v>
+      </c>
+      <c r="B687" t="s">
+        <v>62</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687">
+        <v>1</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" t="s">
+        <v>8</v>
+      </c>
+      <c r="B688" t="s">
+        <v>62</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+      <c r="F688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" t="s">
+        <v>9</v>
+      </c>
+      <c r="B689" t="s">
+        <v>62</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689">
+        <v>1</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" t="s">
+        <v>10</v>
+      </c>
+      <c r="B690" t="s">
+        <v>62</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="A691" t="s">
+        <v>11</v>
+      </c>
+      <c r="B691" t="s">
+        <v>62</v>
+      </c>
+      <c r="C691">
+        <v>1</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692" t="s">
+        <v>62</v>
+      </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" t="s">
+        <v>13</v>
+      </c>
+      <c r="B693" t="s">
+        <v>62</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+      <c r="D693">
+        <v>1</v>
+      </c>
+      <c r="E693">
+        <v>1</v>
+      </c>
+      <c r="F693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" t="s">
+        <v>14</v>
+      </c>
+      <c r="B694" t="s">
+        <v>62</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+      <c r="D694">
+        <v>1</v>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" t="s">
+        <v>15</v>
+      </c>
+      <c r="B695" t="s">
+        <v>62</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+      <c r="D695">
+        <v>1</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" t="s">
+        <v>16</v>
+      </c>
+      <c r="B696" t="s">
+        <v>62</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>1</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" t="s">
+        <v>17</v>
+      </c>
+      <c r="B697" t="s">
+        <v>62</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="A698" t="s">
+        <v>18</v>
+      </c>
+      <c r="B698" t="s">
+        <v>62</v>
+      </c>
+      <c r="C698">
+        <v>1</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" t="s">
+        <v>19</v>
+      </c>
+      <c r="B699" t="s">
+        <v>62</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>1</v>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+      <c r="F699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="A700" t="s">
+        <v>20</v>
+      </c>
+      <c r="B700" t="s">
+        <v>62</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="A701" t="s">
+        <v>21</v>
+      </c>
+      <c r="B701" t="s">
+        <v>62</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6">
+      <c r="A702" t="s">
+        <v>22</v>
+      </c>
+      <c r="B702" t="s">
+        <v>62</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>1</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" t="s">
+        <v>23</v>
+      </c>
+      <c r="B703" t="s">
+        <v>62</v>
+      </c>
+      <c r="C703">
+        <v>1</v>
+      </c>
+      <c r="D703">
+        <v>1</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="A704" t="s">
+        <v>6</v>
+      </c>
+      <c r="B704" t="s">
+        <v>63</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" t="s">
+        <v>7</v>
+      </c>
+      <c r="B705" t="s">
+        <v>63</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" t="s">
+        <v>8</v>
+      </c>
+      <c r="B706" t="s">
+        <v>63</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>1</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" t="s">
+        <v>9</v>
+      </c>
+      <c r="B707" t="s">
+        <v>63</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+      <c r="D707">
+        <v>1</v>
+      </c>
+      <c r="E707">
+        <v>1</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6">
+      <c r="A708" t="s">
+        <v>10</v>
+      </c>
+      <c r="B708" t="s">
+        <v>63</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" t="s">
+        <v>11</v>
+      </c>
+      <c r="B709" t="s">
+        <v>63</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709">
+        <v>1</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" t="s">
+        <v>12</v>
+      </c>
+      <c r="B710" t="s">
+        <v>63</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+      <c r="F710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" t="s">
+        <v>13</v>
+      </c>
+      <c r="B711" t="s">
+        <v>63</v>
+      </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+      <c r="F711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6">
+      <c r="A712" t="s">
+        <v>14</v>
+      </c>
+      <c r="B712" t="s">
+        <v>63</v>
+      </c>
+      <c r="C712">
+        <v>1</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
+      <c r="A713" t="s">
+        <v>15</v>
+      </c>
+      <c r="B713" t="s">
+        <v>63</v>
+      </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+      <c r="F713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" t="s">
+        <v>16</v>
+      </c>
+      <c r="B714" t="s">
+        <v>63</v>
+      </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6">
+      <c r="A715" t="s">
+        <v>17</v>
+      </c>
+      <c r="B715" t="s">
+        <v>63</v>
+      </c>
+      <c r="C715">
+        <v>1</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+      <c r="F715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" t="s">
+        <v>18</v>
+      </c>
+      <c r="B716" t="s">
+        <v>63</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="A717" t="s">
+        <v>19</v>
+      </c>
+      <c r="B717" t="s">
+        <v>63</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" t="s">
+        <v>20</v>
+      </c>
+      <c r="B718" t="s">
+        <v>63</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="A719" t="s">
+        <v>21</v>
+      </c>
+      <c r="B719" t="s">
+        <v>63</v>
+      </c>
+      <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+      <c r="F719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="A720" t="s">
+        <v>22</v>
+      </c>
+      <c r="B720" t="s">
+        <v>63</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720">
+        <v>1</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6">
+      <c r="A721" t="s">
+        <v>23</v>
+      </c>
+      <c r="B721" t="s">
+        <v>63</v>
+      </c>
+      <c r="C721">
+        <v>1</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+      <c r="F721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
+      <c r="A722" t="s">
+        <v>6</v>
+      </c>
+      <c r="B722" t="s">
+        <v>64</v>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+      <c r="F722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6">
+      <c r="A723" t="s">
+        <v>7</v>
+      </c>
+      <c r="B723" t="s">
+        <v>64</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+      <c r="F723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6">
+      <c r="A724" t="s">
+        <v>8</v>
+      </c>
+      <c r="B724" t="s">
+        <v>64</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+      <c r="F724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6">
+      <c r="A725" t="s">
+        <v>9</v>
+      </c>
+      <c r="B725" t="s">
+        <v>64</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+      <c r="E725">
+        <v>1</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="A726" t="s">
+        <v>10</v>
+      </c>
+      <c r="B726" t="s">
+        <v>64</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="A727" t="s">
+        <v>11</v>
+      </c>
+      <c r="B727" t="s">
+        <v>64</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>1</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6">
+      <c r="A728" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728" t="s">
+        <v>64</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="A729" t="s">
+        <v>13</v>
+      </c>
+      <c r="B729" t="s">
+        <v>64</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>1</v>
+      </c>
+      <c r="F729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
+      <c r="A730" t="s">
+        <v>14</v>
+      </c>
+      <c r="B730" t="s">
+        <v>64</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+      <c r="F730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6">
+      <c r="A731" t="s">
+        <v>15</v>
+      </c>
+      <c r="B731" t="s">
+        <v>64</v>
+      </c>
+      <c r="C731">
+        <v>1</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6">
+      <c r="A732" t="s">
+        <v>16</v>
+      </c>
+      <c r="B732" t="s">
+        <v>64</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+      <c r="F732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6">
+      <c r="A733" t="s">
+        <v>17</v>
+      </c>
+      <c r="B733" t="s">
+        <v>64</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+      <c r="F733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6">
+      <c r="A734" t="s">
+        <v>18</v>
+      </c>
+      <c r="B734" t="s">
+        <v>64</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6">
+      <c r="A735" t="s">
+        <v>19</v>
+      </c>
+      <c r="B735" t="s">
+        <v>64</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="A736" t="s">
+        <v>20</v>
+      </c>
+      <c r="B736" t="s">
+        <v>64</v>
+      </c>
+      <c r="C736">
+        <v>1</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+      <c r="F736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6">
+      <c r="A737" t="s">
+        <v>21</v>
+      </c>
+      <c r="B737" t="s">
+        <v>64</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+      <c r="F737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" t="s">
+        <v>22</v>
+      </c>
+      <c r="B738" t="s">
+        <v>64</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" t="s">
+        <v>23</v>
+      </c>
+      <c r="B739" t="s">
+        <v>64</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="F739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="A740" t="s">
+        <v>6</v>
+      </c>
+      <c r="B740" t="s">
+        <v>65</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" t="s">
+        <v>7</v>
+      </c>
+      <c r="B741" t="s">
+        <v>65</v>
+      </c>
+      <c r="C741">
+        <v>1</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+      <c r="F741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="A742" t="s">
+        <v>8</v>
+      </c>
+      <c r="B742" t="s">
+        <v>65</v>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+      <c r="F742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" t="s">
+        <v>9</v>
+      </c>
+      <c r="B743" t="s">
+        <v>65</v>
+      </c>
+      <c r="C743">
+        <v>1</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+      <c r="F743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" t="s">
+        <v>10</v>
+      </c>
+      <c r="B744" t="s">
+        <v>65</v>
+      </c>
+      <c r="C744">
+        <v>1</v>
+      </c>
+      <c r="D744">
+        <v>1</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" t="s">
+        <v>11</v>
+      </c>
+      <c r="B745" t="s">
+        <v>65</v>
+      </c>
+      <c r="C745">
+        <v>1</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+      <c r="F745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="A746" t="s">
+        <v>12</v>
+      </c>
+      <c r="B746" t="s">
+        <v>65</v>
+      </c>
+      <c r="C746">
+        <v>1</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746">
+        <v>1</v>
+      </c>
+      <c r="F746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6">
+      <c r="A747" t="s">
+        <v>13</v>
+      </c>
+      <c r="B747" t="s">
+        <v>65</v>
+      </c>
+      <c r="C747">
+        <v>1</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747">
+        <v>1</v>
+      </c>
+      <c r="F747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6">
+      <c r="A748" t="s">
+        <v>14</v>
+      </c>
+      <c r="B748" t="s">
+        <v>65</v>
+      </c>
+      <c r="C748">
+        <v>1</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>1</v>
+      </c>
+      <c r="F748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="A749" t="s">
+        <v>15</v>
+      </c>
+      <c r="B749" t="s">
+        <v>65</v>
+      </c>
+      <c r="C749">
+        <v>1</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749">
+        <v>1</v>
+      </c>
+      <c r="F749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6">
+      <c r="A750" t="s">
+        <v>16</v>
+      </c>
+      <c r="B750" t="s">
+        <v>65</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750">
+        <v>1</v>
+      </c>
+      <c r="F750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6">
+      <c r="A751" t="s">
+        <v>17</v>
+      </c>
+      <c r="B751" t="s">
+        <v>65</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751">
+        <v>1</v>
+      </c>
+      <c r="F751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6">
+      <c r="A752" t="s">
+        <v>18</v>
+      </c>
+      <c r="B752" t="s">
+        <v>65</v>
+      </c>
+      <c r="C752">
+        <v>1</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+      <c r="F752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6">
+      <c r="A753" t="s">
+        <v>19</v>
+      </c>
+      <c r="B753" t="s">
+        <v>65</v>
+      </c>
+      <c r="C753">
+        <v>1</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753">
+        <v>1</v>
+      </c>
+      <c r="F753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6">
+      <c r="A754" t="s">
+        <v>20</v>
+      </c>
+      <c r="B754" t="s">
+        <v>65</v>
+      </c>
+      <c r="C754">
+        <v>1</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754">
+        <v>1</v>
+      </c>
+      <c r="F754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6">
+      <c r="A755" t="s">
+        <v>21</v>
+      </c>
+      <c r="B755" t="s">
+        <v>65</v>
+      </c>
+      <c r="C755">
+        <v>1</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+      <c r="F755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6">
+      <c r="A756" t="s">
+        <v>22</v>
+      </c>
+      <c r="B756" t="s">
+        <v>65</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+      <c r="F756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6">
+      <c r="A757" t="s">
+        <v>23</v>
+      </c>
+      <c r="B757" t="s">
+        <v>65</v>
+      </c>
+      <c r="C757">
+        <v>1</v>
+      </c>
+      <c r="D757">
+        <v>1</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6">
+      <c r="A758" t="s">
+        <v>6</v>
+      </c>
+      <c r="B758" t="s">
+        <v>66</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+      <c r="F758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6">
+      <c r="A759" t="s">
+        <v>7</v>
+      </c>
+      <c r="B759" t="s">
+        <v>66</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+      <c r="F759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6">
+      <c r="A760" t="s">
+        <v>8</v>
+      </c>
+      <c r="B760" t="s">
+        <v>66</v>
+      </c>
+      <c r="C760">
+        <v>1</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+      <c r="F760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6">
+      <c r="A761" t="s">
+        <v>9</v>
+      </c>
+      <c r="B761" t="s">
+        <v>66</v>
+      </c>
+      <c r="C761">
+        <v>1</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="A762" t="s">
+        <v>10</v>
+      </c>
+      <c r="B762" t="s">
+        <v>66</v>
+      </c>
+      <c r="C762">
+        <v>1</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+      <c r="F762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="A763" t="s">
+        <v>11</v>
+      </c>
+      <c r="B763" t="s">
+        <v>66</v>
+      </c>
+      <c r="C763">
+        <v>1</v>
+      </c>
+      <c r="D763">
+        <v>1</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+      <c r="F763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6">
+      <c r="A764" t="s">
+        <v>12</v>
+      </c>
+      <c r="B764" t="s">
+        <v>66</v>
+      </c>
+      <c r="C764">
+        <v>1</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+      <c r="E764">
+        <v>1</v>
+      </c>
+      <c r="F764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6">
+      <c r="A765" t="s">
+        <v>13</v>
+      </c>
+      <c r="B765" t="s">
+        <v>66</v>
+      </c>
+      <c r="C765">
+        <v>1</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+      <c r="E765">
+        <v>1</v>
+      </c>
+      <c r="F765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6">
+      <c r="A766" t="s">
+        <v>14</v>
+      </c>
+      <c r="B766" t="s">
+        <v>66</v>
+      </c>
+      <c r="C766">
+        <v>1</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6">
+      <c r="A767" t="s">
+        <v>15</v>
+      </c>
+      <c r="B767" t="s">
+        <v>66</v>
+      </c>
+      <c r="C767">
+        <v>1</v>
+      </c>
+      <c r="D767">
+        <v>1</v>
+      </c>
+      <c r="E767">
+        <v>1</v>
+      </c>
+      <c r="F767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6">
+      <c r="A768" t="s">
+        <v>16</v>
+      </c>
+      <c r="B768" t="s">
+        <v>66</v>
+      </c>
+      <c r="C768">
+        <v>1</v>
+      </c>
+      <c r="D768">
+        <v>1</v>
+      </c>
+      <c r="E768">
+        <v>1</v>
+      </c>
+      <c r="F768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="A769" t="s">
+        <v>17</v>
+      </c>
+      <c r="B769" t="s">
+        <v>66</v>
+      </c>
+      <c r="C769">
+        <v>1</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+      <c r="E769">
+        <v>1</v>
+      </c>
+      <c r="F769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6">
+      <c r="A770" t="s">
+        <v>18</v>
+      </c>
+      <c r="B770" t="s">
+        <v>66</v>
+      </c>
+      <c r="C770">
+        <v>1</v>
+      </c>
+      <c r="D770">
+        <v>1</v>
+      </c>
+      <c r="E770">
+        <v>1</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" t="s">
+        <v>19</v>
+      </c>
+      <c r="B771" t="s">
+        <v>66</v>
+      </c>
+      <c r="C771">
+        <v>1</v>
+      </c>
+      <c r="D771">
+        <v>1</v>
+      </c>
+      <c r="E771">
+        <v>1</v>
+      </c>
+      <c r="F771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="A772" t="s">
+        <v>20</v>
+      </c>
+      <c r="B772" t="s">
+        <v>66</v>
+      </c>
+      <c r="C772">
+        <v>1</v>
+      </c>
+      <c r="D772">
+        <v>1</v>
+      </c>
+      <c r="E772">
+        <v>1</v>
+      </c>
+      <c r="F772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="A773" t="s">
+        <v>21</v>
+      </c>
+      <c r="B773" t="s">
+        <v>66</v>
+      </c>
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
+      </c>
+      <c r="E773">
+        <v>1</v>
+      </c>
+      <c r="F773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="A774" t="s">
+        <v>22</v>
+      </c>
+      <c r="B774" t="s">
+        <v>66</v>
+      </c>
+      <c r="C774">
+        <v>1</v>
+      </c>
+      <c r="D774">
+        <v>1</v>
+      </c>
+      <c r="E774">
+        <v>1</v>
+      </c>
+      <c r="F774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="A775" t="s">
+        <v>23</v>
+      </c>
+      <c r="B775" t="s">
+        <v>66</v>
+      </c>
+      <c r="C775">
+        <v>1</v>
+      </c>
+      <c r="D775">
+        <v>1</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+      <c r="F775">
         <v>1</v>
       </c>
     </row>
